--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,10 +52,13 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>awesome</t>
   </si>
   <si>
     <t>love</t>
@@ -64,78 +67,72 @@
     <t>amazing</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
     <t>salad</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>bread</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
     <t>potatoes</t>
   </si>
   <si>
@@ -145,34 +142,40 @@
     <t>perfectly</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>ze</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>years</t>
   </si>
   <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>gr</t>
+    <t>cook</t>
   </si>
   <si>
     <t>pan</t>
@@ -181,43 +184,46 @@
     <t>keeps</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>also</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>hot</t>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>like</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>one</t>
@@ -584,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,7 +601,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -653,13 +659,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -671,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -695,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -703,13 +709,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2558139534883721</v>
+        <v>0.2868217054263566</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -721,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.890625</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -745,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -753,13 +759,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.8695652173913043</v>
+        <v>0.8828125</v>
       </c>
       <c r="L5">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +785,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8529411764705882</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>551</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>551</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>95</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,13 +811,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.8275862068965517</v>
+        <v>0.8622291021671826</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>557</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>557</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -823,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -831,13 +837,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.8260869565217391</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -849,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -857,13 +863,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7402597402597403</v>
+        <v>0.75</v>
       </c>
       <c r="L9">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -875,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -883,13 +889,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7272727272727273</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L10">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -901,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -909,13 +915,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.7272727272727273</v>
+        <v>0.7316017316017316</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -927,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -935,13 +941,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.7123287671232876</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="L12">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M12">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -953,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -961,13 +967,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.6666666666666666</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -979,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1013,13 +1019,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6356340288924559</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L15">
-        <v>792</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>792</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1031,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>454</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1039,13 +1045,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6197183098591549</v>
+        <v>0.6316211878009631</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>787</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>787</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1057,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1065,13 +1071,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.5972222222222222</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L17">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1083,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1091,13 +1097,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.5942857142857143</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="L18">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M18">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1109,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1117,13 +1123,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.59375</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1135,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1143,13 +1149,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5882352941176471</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1161,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1169,13 +1175,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1187,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1195,13 +1201,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5614035087719298</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1213,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1221,13 +1227,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5571428571428572</v>
+        <v>0.5029940119760479</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1239,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1247,13 +1253,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5384615384615384</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L24">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M24">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1265,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1273,13 +1279,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.5384615384615384</v>
+        <v>0.484375</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1291,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1299,13 +1305,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.5301204819277109</v>
+        <v>0.4711538461538461</v>
       </c>
       <c r="L26">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M26">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1317,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1325,13 +1331,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.5209580838323353</v>
+        <v>0.4586466165413534</v>
       </c>
       <c r="L27">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="M27">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1343,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1351,13 +1357,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.4705882352941176</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1369,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1377,13 +1383,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.4586466165413534</v>
+        <v>0.44</v>
       </c>
       <c r="L29">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="M29">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1395,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1403,25 +1409,25 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.4519230769230769</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="L30">
+        <v>36</v>
+      </c>
+      <c r="M30">
+        <v>36</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>47</v>
-      </c>
-      <c r="M30">
-        <v>47</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>57</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1429,13 +1435,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.45</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L31">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1447,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1455,13 +1461,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.4285714285714285</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1473,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>36</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1481,13 +1487,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.3795180722891566</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L33">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1499,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1507,13 +1513,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.3684210526315789</v>
+        <v>0.357843137254902</v>
       </c>
       <c r="L34">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="M34">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1525,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>48</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1533,13 +1539,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.345679012345679</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M35">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1551,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1559,13 +1565,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.3455882352941176</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="L36">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="M36">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1577,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>267</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1585,13 +1591,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.3383458646616541</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="L37">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M37">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1603,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>88</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1611,13 +1617,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.3151750972762646</v>
+        <v>0.3229571984435798</v>
       </c>
       <c r="L38">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M38">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1629,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1637,13 +1643,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.2772277227722773</v>
+        <v>0.3093525179856115</v>
       </c>
       <c r="L39">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M39">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1655,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1663,13 +1669,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.273972602739726</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="L40">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="M40">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1681,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>530</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1689,13 +1695,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.2702702702702703</v>
+        <v>0.2479452054794521</v>
       </c>
       <c r="L41">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="M41">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1707,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>81</v>
+        <v>549</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1715,13 +1721,13 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.2335844994617869</v>
+        <v>0.2378902045209903</v>
       </c>
       <c r="L42">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M42">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1733,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1741,13 +1747,13 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.2302158273381295</v>
+        <v>0.2200956937799043</v>
       </c>
       <c r="L43">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M43">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1759,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>107</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1767,7 +1773,7 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.2095238095238095</v>
+        <v>0.2178217821782178</v>
       </c>
       <c r="L44">
         <v>22</v>
@@ -1785,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1793,13 +1799,13 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.1974921630094044</v>
+        <v>0.212962962962963</v>
       </c>
       <c r="L45">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="M45">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1811,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>256</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1819,13 +1825,13 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.1854304635761589</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="L46">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="M46">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1837,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>123</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1845,13 +1851,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.1818181818181818</v>
+        <v>0.1986754966887417</v>
       </c>
       <c r="L47">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M47">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1863,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>171</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1871,13 +1877,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.1682119205298013</v>
+        <v>0.1748344370860927</v>
       </c>
       <c r="L48">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M48">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1889,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1897,13 +1903,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.1585677749360614</v>
+        <v>0.1547314578005115</v>
       </c>
       <c r="L49">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M49">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1915,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1923,7 +1929,7 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.1133004926108374</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="L50">
         <v>23</v>
@@ -1941,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>180</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1949,25 +1955,25 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.1099656357388316</v>
+        <v>0.1162162162162162</v>
       </c>
       <c r="L51">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M51">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>259</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1975,13 +1981,13 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.1070559610705596</v>
+        <v>0.1065292096219931</v>
       </c>
       <c r="L52">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M52">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -1993,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>367</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2001,13 +2007,13 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.1051212938005391</v>
+        <v>0.1045454545454545</v>
       </c>
       <c r="L53">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M53">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2019,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>332</v>
+        <v>394</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2027,13 +2033,13 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.09545454545454546</v>
+        <v>0.09243697478991597</v>
       </c>
       <c r="L54">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M54">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2045,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>398</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2053,13 +2059,13 @@
         <v>63</v>
       </c>
       <c r="K55">
-        <v>0.09243697478991597</v>
+        <v>0.0851581508515815</v>
       </c>
       <c r="L55">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M55">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2071,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>216</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2079,13 +2085,13 @@
         <v>64</v>
       </c>
       <c r="K56">
-        <v>0.08333333333333333</v>
+        <v>0.08487084870848709</v>
       </c>
       <c r="L56">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M56">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2097,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>418</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2105,13 +2111,13 @@
         <v>65</v>
       </c>
       <c r="K57">
-        <v>0.08148148148148149</v>
+        <v>0.08353221957040573</v>
       </c>
       <c r="L57">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M57">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2123,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>248</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2131,13 +2137,13 @@
         <v>66</v>
       </c>
       <c r="K58">
-        <v>0.081145584725537</v>
+        <v>0.08148148148148149</v>
       </c>
       <c r="L58">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="M58">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2149,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>385</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2157,25 +2163,25 @@
         <v>67</v>
       </c>
       <c r="K59">
-        <v>0.054519368723099</v>
+        <v>0.07236842105263158</v>
       </c>
       <c r="L59">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M59">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N59">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>659</v>
+        <v>423</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2183,25 +2189,25 @@
         <v>68</v>
       </c>
       <c r="K60">
-        <v>0.04295051353874883</v>
+        <v>0.054519368723099</v>
       </c>
       <c r="L60">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M60">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N60">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O60">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>1025</v>
+        <v>659</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2209,7 +2215,7 @@
         <v>69</v>
       </c>
       <c r="K61">
-        <v>0.02422145328719723</v>
+        <v>0.05175600739371534</v>
       </c>
       <c r="L61">
         <v>28</v>
@@ -2227,7 +2233,59 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>1128</v>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K62">
+        <v>0.04384328358208955</v>
+      </c>
+      <c r="L62">
+        <v>47</v>
+      </c>
+      <c r="M62">
+        <v>47</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K63">
+        <v>0.02424242424242424</v>
+      </c>
+      <c r="L63">
+        <v>28</v>
+      </c>
+      <c r="M63">
+        <v>30</v>
+      </c>
+      <c r="N63">
+        <v>0.93</v>
+      </c>
+      <c r="O63">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>1127</v>
       </c>
     </row>
   </sheetData>
